--- a/grupo9/Casos de Testes - Grupo 9.xlsx
+++ b/grupo9/Casos de Testes - Grupo 9.xlsx
@@ -1,42 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Casos de Teste" sheetId="1" r:id="rId3"/>
+    <sheet name="Casos de Teste" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Entrada (Salário; Qtde de dependentes)</t>
+    <t xml:space="preserve">Entrada (Salário bruto; Qtde de dependentes)</t>
   </si>
   <si>
-    <t>Saída (Resultado esperado): SB; INSS; IR</t>
+    <t xml:space="preserve">Saída (Resultado esperado): SL; INSS; FGTS; IR</t>
   </si>
   <si>
-    <t>Restrições (se houver)</t>
+    <t xml:space="preserve">Restrições (se houver)</t>
   </si>
   <si>
-    <t>Resultado do teste</t>
+    <t xml:space="preserve">Resultado do teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,48 +77,85 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.86"/>
-    <col customWidth="1" min="2" max="2" width="39.86"/>
-    <col customWidth="1" min="3" max="3" width="27.14"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -100,6 +170,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/grupo9/Casos de Testes - Grupo 9.xlsx
+++ b/grupo9/Casos de Testes - Grupo 9.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Teste" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Entrada (Salário bruto; Qtde de dependentes)</t>
   </si>
@@ -32,6 +32,66 @@
   </si>
   <si>
     <t xml:space="preserve">Resultado do teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1000;5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL 920; 80; 80; -27,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1500;3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380; 120;120;811,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2275; 225; 200; 947,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1104; 96;96;379,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3600;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3146,16; 396;288;54,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1700;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1492,16;153;136;54,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1800;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1638;162;144;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3506,09;440;320;53,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5650,76;621,04;560;728,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1780;2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">891,60;160,20;142,40;728,20</t>
   </si>
 </sst>
 </file>
@@ -140,19 +200,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.4795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.1530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,6 +227,86 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
